--- a/input/images/tables/addl_uscdi_choice_refs.xlsx
+++ b/input/images/tables/addl_uscdi_choice_refs.xlsx
@@ -1058,12 +1058,36 @@
           <t>US Core Observation Pregnancy Intent Profile</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1075,12 +1099,36 @@
           <t>US Core Observation Pregnancy Status Profile</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1109,12 +1157,36 @@
           <t>US Core Observation Sexual Orientation Profile</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">

--- a/input/images/tables/addl_uscdi_choice_refs.xlsx
+++ b/input/images/tables/addl_uscdi_choice_refs.xlsx
@@ -540,10 +540,26 @@
           <t>US Core AllergyIntolerance Profile</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -659,12 +675,36 @@
           <t>US Core Care Experience Preference Profile</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -676,13 +716,41 @@
           <t>US Core CarePlan Profile</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Device</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -710,10 +778,26 @@
           <t>US Core Condition Encounter Diagnosis Profile</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -727,10 +811,26 @@
           <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1041,12 +1141,36 @@
           <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1157,36 +1281,12 @@
           <t>US Core Observation Sexual Orientation Profile</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>PractitionerRole</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>US Core CareTeam Profile</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>US Core RelatedPerson Profile</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1504,12 +1604,36 @@
           <t>US Core Treatment Intervention Preference Profile</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">

--- a/input/images/tables/addl_uscdi_choice_refs.xlsx
+++ b/input/images/tables/addl_uscdi_choice_refs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="addl_uscdi_choice_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="addl_uscdi_choice_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1654,6 +1654,6 @@
       <c r="I55" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/addl_uscdi_choice_refs.xlsx
+++ b/input/images/tables/addl_uscdi_choice_refs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="addl_uscdi_choice_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="addl_uscdi_choice_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -718,17 +718,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>PractitionerRole</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PractitionerRole</t>
+          <t>US Core CareTeam Profile</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>US Core CareTeam Profile</t>
+          <t>US Core Device Profile</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Device Profile</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -875,7 +875,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>US Core Head Circumference Profile</t>
+          <t>US Core FamilyMemberHistory Profile</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -960,7 +960,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>US Core Heart Rate Profile</t>
+          <t>US Core Goal Profile</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
+          <t>US Core Head Circumference Profile</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core Heart Rate Profile</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
+          <t>US Core Immunization Profile</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>US Core Medication Profile</t>
+          <t>US Core Location Profile</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>US Core MedicationDispense Profile</t>
+          <t>US Core Medication Profile</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1062,19 +1062,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core MedicationDispense Profile</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1087,11 +1079,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>US Core Observation ADI Documentation Profile</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+          <t>US Core MedicationRequest Profile</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile</t>
+          <t>US Core Observation ADI Documentation Profile</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Observation Clinical Result Profile</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1138,39 +1138,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>PractitionerRole</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>US Core CareTeam Profile</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>US Core RelatedPerson Profile</t>
-        </is>
-      </c>
+          <t>US Core Laboratory Result Observation Profile</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1179,7 +1155,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Intent Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1220,7 +1196,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Status Profile</t>
+          <t>US Core Observation Pregnancy Intent Profile</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1261,15 +1237,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>US Core Observation Screening Assessment Profile</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+          <t>US Core Observation Pregnancy Status Profile</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>US Core Observation Sexual Orientation Profile</t>
+          <t>US Core Observation Screening Assessment Profile</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>US Core Organization Profile</t>
+          <t>US Core Observation Sexual Orientation Profile</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Organization Profile</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile</t>
+          <t>US Core PMO ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1363,44 +1363,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>US Core CarePlan Profile</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>US Core ServiceRequest Profile</t>
-        </is>
-      </c>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1408,7 +1380,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core PractitionerRole Profile</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1425,16 +1397,44 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>US Core Pulse Oximetry Profile</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+          <t>US Core Procedure Profile</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>DocumentReference</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>US Core CarePlan Profile</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>US Core ServiceRequest Profile</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>US Core QuestionnaireResponse Profile</t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>US Core Respiratory Rate Profile</t>
+          <t>US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1493,29 +1493,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -1526,39 +1510,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>ImagingStudy</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>MolecularSequence</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>US Core DocumentReference Profile</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>US Core QuestionnaireResponse Profile</t>
-        </is>
-      </c>
+          <t>US Core Respiratory Rate Profile</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1567,13 +1527,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+          <t>US Core ServiceRequest Profile</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>DocumentReference</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -1584,15 +1560,39 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+          <t>US Core Simple Observation Profile</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ImagingStudy</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MolecularSequence</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>US Core DocumentReference Profile</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>US Core QuestionnaireResponse Profile</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1601,39 +1601,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>PractitionerRole</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>US Core CareTeam Profile</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>US Core RelatedPerson Profile</t>
-        </is>
-      </c>
+          <t>US Core Smoking Status Observation Profile</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -1642,7 +1618,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>US Core Vital Signs Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1653,7 +1629,65 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>US Core Treatment Intervention Preference Profile</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>US Core Vital Signs Profile</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/addl_uscdi_choice_refs.xlsx
+++ b/input/images/tables/addl_uscdi_choice_refs.xlsx
@@ -1342,11 +1342,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>US Core PMO ServiceRequest Profile</t>
+          <t>US Core Practitioner Profile</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1359,11 +1359,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
+          <t>US Core PractitionerRole Profile</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1376,73 +1376,73 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+          <t>US Core Procedure Profile</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>DocumentReference</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>US Core CarePlan Profile</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>US Core ServiceRequest Profile</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>US Core CarePlan Profile</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>US Core ServiceRequest Profile</t>
-        </is>
-      </c>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1455,11 +1455,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>US Core Pulse Oximetry Profile</t>
+          <t>US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1472,11 +1472,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>US Core QuestionnaireResponse Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1489,11 +1489,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Respiratory Rate Profile</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1506,43 +1506,59 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>US Core Respiratory Rate Profile</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+          <t>US Core ServiceRequest Profile</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DocumentReference</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core Simple Observation Profile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>ImagingStudy</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DiagnosticReport</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
+          <t>MolecularSequence</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1550,58 +1566,42 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>US Core DocumentReference Profile</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>US Core QuestionnaireResponse Profile</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>ImagingStudy</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>MolecularSequence</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>US Core DocumentReference Profile</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>US Core QuestionnaireResponse Profile</t>
-        </is>
-      </c>
+          <t>US Core Smoking Status Observation Profile</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1614,78 +1614,61 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+          <t>US Core Treatment Intervention Preference Profile</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PractitionerRole</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>PractitionerRole</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>US Core CareTeam Profile</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>US Core RelatedPerson Profile</t>
-        </is>
-      </c>
+          <t>US Core Vital Signs Profile</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>US Core Vital Signs Profile</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
